--- a/output/2-married-gift-home.xlsx
+++ b/output/2-married-gift-home.xlsx
@@ -154,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,6 +225,20 @@
       <right style="none">
         <color rgb="FF000000"/>
       </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="none">
         <color rgb="FF000000"/>
       </top>
@@ -239,70 +253,70 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="50000" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50000" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50001" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50002" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50003" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50004" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50005" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50006" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50007" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50008" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50009" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50010" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50011" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50012" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50012" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50013" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50014" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50015" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,8 +610,12 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="NA" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="NA" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="NA" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="NA" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -613,7 +631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="NA" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="NA" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -629,7 +647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="NA" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -637,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="NA" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -645,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="NA" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -653,7 +671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="NA" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -661,7 +679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="NA" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -669,7 +687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="NA" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -677,7 +695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="NA" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -685,7 +703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -693,7 +711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="NA" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -701,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="NA" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -709,7 +727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -717,7 +735,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="NA" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -725,7 +743,7 @@
         <v>1771.26</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="NA" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -733,7 +751,7 @@
         <v>1844.75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="NA" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0.07</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="NA" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>

--- a/output/2-married-gift-home.xlsx
+++ b/output/2-married-gift-home.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ltian\OneDrive - homesite.com\Documents\workspace\github_workspace\parental-wealth-impact\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianl\Documents\GitHub\parental-wealth-impact\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_D9A20DEC8611B15D37839A7E16119B90EFBF1AA0" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F68818E5-8091-4DCB-A209-2FC86355272A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519BD11-A68E-4347-A528-3CFC9649C9A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t/>
   </si>
@@ -119,13 +119,17 @@
   </si>
   <si>
     <t>Table 2. Determinant of gifted home upon marriage among married men</t>
+  </si>
+  <si>
+    <t>Men</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,6 +149,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,9 +247,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -249,9 +257,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,29 +558,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -577,13 +590,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -591,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -599,7 +612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -607,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -615,7 +628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -623,7 +636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -631,13 +644,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -645,7 +658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -653,13 +666,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -667,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -675,7 +688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -683,23 +696,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>2106</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -707,7 +720,7 @@
         <v>1771.26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -715,7 +728,7 @@
         <v>1844.75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -723,16 +736,17 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>